--- a/MEDIA/2998_拉亞直營營業額(2020-04-01~2020-04-30).xlsx
+++ b/MEDIA/2998_拉亞直營營業額(2020-04-01~2020-04-30).xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,61 +514,61 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1280</v>
+        <v>19100</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="F3" t="n">
-        <v>45</v>
+        <v>5635</v>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>29.5</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="I3" t="n">
-        <v>585</v>
+        <v>5695</v>
       </c>
       <c r="J3" t="n">
-        <v>45.7</v>
+        <v>29.8</v>
       </c>
       <c r="K3" t="n">
+        <v>17</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1870</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>7</v>
       </c>
-      <c r="L3" t="n">
-        <v>650</v>
-      </c>
-      <c r="M3" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1365</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>4535</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -580,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="AA3" t="n">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
@@ -603,61 +603,61 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1680</v>
+        <v>20675</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>7245</v>
       </c>
       <c r="G4" t="n">
+        <v>35</v>
+      </c>
+      <c r="H4" t="n">
+        <v>53</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4585</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1525</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>6</v>
       </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>305</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1275</v>
-      </c>
-      <c r="M4" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1335</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>5985</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>28.9</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -669,21 +669,21 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="AA4" t="n">
-        <v>112</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>六</t>
+          <t>五</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -692,34 +692,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1470</v>
+        <v>19510</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F5" t="n">
-        <v>330</v>
+        <v>4950</v>
       </c>
       <c r="G5" t="n">
-        <v>22.4</v>
+        <v>25.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>7315</v>
       </c>
       <c r="J5" t="n">
-        <v>1.7</v>
+        <v>37.5</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L5" t="n">
-        <v>1115</v>
+        <v>1045</v>
       </c>
       <c r="M5" t="n">
-        <v>75.90000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -731,22 +731,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1940</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>4260</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -758,21 +758,21 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="AA5" t="n">
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2020-04-04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>六</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -781,34 +781,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>885</v>
+        <v>19095</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="F6" t="n">
-        <v>280</v>
+        <v>6535</v>
       </c>
       <c r="G6" t="n">
-        <v>31.6</v>
+        <v>34.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>280</v>
+        <v>3820</v>
       </c>
       <c r="J6" t="n">
-        <v>31.6</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L6" t="n">
-        <v>325</v>
+        <v>1725</v>
       </c>
       <c r="M6" t="n">
-        <v>36.7</v>
+        <v>9</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1360</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>5655</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>29.6</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -847,21 +847,21 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="AA6" t="n">
-        <v>80</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2020-04-06</t>
+          <t>2020-04-05</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>一</t>
+          <t>日</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -870,61 +870,61 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>715</v>
+        <v>24070</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="F7" t="n">
-        <v>145</v>
+        <v>9000</v>
       </c>
       <c r="G7" t="n">
-        <v>20.3</v>
+        <v>37.4</v>
       </c>
       <c r="H7" t="n">
+        <v>56</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6130</v>
+      </c>
+      <c r="J7" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1100</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
-        <v>185</v>
-      </c>
-      <c r="J7" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>385</v>
-      </c>
-      <c r="M7" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>7215</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -936,21 +936,21 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="AA7" t="n">
-        <v>55</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2020-04-06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>二</t>
+          <t>一</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -959,35 +959,35 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>720</v>
+        <v>23570</v>
       </c>
       <c r="E8" t="n">
+        <v>89</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9400</v>
+      </c>
+      <c r="G8" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>77</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5150</v>
+      </c>
+      <c r="J8" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>13</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1190</v>
+      </c>
+      <c r="M8" t="n">
         <v>5</v>
       </c>
-      <c r="F8" t="n">
-        <v>185</v>
-      </c>
-      <c r="G8" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>135</v>
-      </c>
-      <c r="J8" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>400</v>
-      </c>
-      <c r="M8" t="n">
-        <v>55.6</v>
-      </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
@@ -998,22 +998,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1725</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>6105</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>25.9</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1025,21 +1025,21 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="AA8" t="n">
-        <v>55</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>二</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1048,61 +1048,61 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1990</v>
+        <v>18340</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="F9" t="n">
-        <v>210</v>
+        <v>7585</v>
       </c>
       <c r="G9" t="n">
-        <v>10.6</v>
+        <v>41.4</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="I9" t="n">
-        <v>175</v>
+        <v>4990</v>
       </c>
       <c r="J9" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>610</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1605</v>
+      </c>
+      <c r="S9" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="K9" t="n">
-        <v>13</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1605</v>
-      </c>
-      <c r="M9" t="n">
-        <v>80.7</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>3550</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>19.4</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1114,21 +1114,21 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="AA9" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-08</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>五</t>
+          <t>三</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1137,61 +1137,61 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1400</v>
+        <v>22170</v>
       </c>
       <c r="E10" t="n">
+        <v>82</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9185</v>
+      </c>
+      <c r="G10" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>87</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5765</v>
+      </c>
+      <c r="J10" t="n">
+        <v>26</v>
+      </c>
+      <c r="K10" t="n">
+        <v>14</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1770</v>
+      </c>
+      <c r="M10" t="n">
+        <v>8</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>6</v>
       </c>
-      <c r="F10" t="n">
-        <v>265</v>
-      </c>
-      <c r="G10" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>85</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>8</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1050</v>
-      </c>
-      <c r="M10" t="n">
-        <v>75</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>3830</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>17.3</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1203,21 +1203,21 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>215</v>
       </c>
       <c r="AA10" t="n">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2020-04-12</t>
+          <t>2020-04-09</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>四</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1226,34 +1226,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1025</v>
+        <v>17875</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="F11" t="n">
-        <v>290</v>
+        <v>7110</v>
       </c>
       <c r="G11" t="n">
-        <v>28.3</v>
+        <v>39.8</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>5445</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L11" t="n">
-        <v>735</v>
+        <v>2185</v>
       </c>
       <c r="M11" t="n">
-        <v>71.7</v>
+        <v>12.2</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>3045</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1292,21 +1292,21 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="AA11" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>一</t>
+          <t>五</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1315,61 +1315,61 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>645</v>
+        <v>17875</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F12" t="n">
-        <v>170</v>
+        <v>8475</v>
       </c>
       <c r="G12" t="n">
-        <v>26.4</v>
+        <v>47.4</v>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="I12" t="n">
-        <v>380</v>
+        <v>5695</v>
       </c>
       <c r="J12" t="n">
-        <v>58.9</v>
+        <v>31.9</v>
       </c>
       <c r="K12" t="n">
+        <v>11</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1325</v>
+      </c>
+      <c r="M12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>2</v>
       </c>
-      <c r="L12" t="n">
-        <v>95</v>
-      </c>
-      <c r="M12" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>2030</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1381,21 +1381,21 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="AA12" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2020-04-14</t>
+          <t>2020-04-11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>二</t>
+          <t>六</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1404,34 +1404,34 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>830</v>
+        <v>17385</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="F13" t="n">
-        <v>25</v>
+        <v>6170</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>35.5</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="I13" t="n">
-        <v>375</v>
+        <v>6540</v>
       </c>
       <c r="J13" t="n">
-        <v>45.2</v>
+        <v>37.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
-        <v>430</v>
+        <v>1180</v>
       </c>
       <c r="M13" t="n">
-        <v>51.8</v>
+        <v>6.8</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1443,22 +1443,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1335</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2160</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1470,21 +1470,21 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="AA13" t="n">
-        <v>55</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2020-04-15</t>
+          <t>2020-04-12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>日</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1493,87 +1493,87 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1260</v>
+        <v>29445</v>
       </c>
       <c r="E14" t="n">
+        <v>64</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10940</v>
+      </c>
+      <c r="G14" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>56</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6940</v>
+      </c>
+      <c r="J14" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>11</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1765</v>
+      </c>
+      <c r="M14" t="n">
         <v>6</v>
       </c>
-      <c r="F14" t="n">
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>12</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2700</v>
+      </c>
+      <c r="S14" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="T14" t="n">
+        <v>41</v>
+      </c>
+      <c r="U14" t="n">
+        <v>7100</v>
+      </c>
+      <c r="V14" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>184</v>
+      </c>
+      <c r="AA14" t="n">
         <v>160</v>
-      </c>
-      <c r="G14" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-      <c r="I14" t="n">
-        <v>485</v>
-      </c>
-      <c r="J14" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>7</v>
-      </c>
-      <c r="L14" t="n">
-        <v>615</v>
-      </c>
-      <c r="M14" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2020-04-16</t>
+          <t>2020-04-13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>一</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1582,34 +1582,34 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2060</v>
+        <v>19410</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="F15" t="n">
-        <v>330</v>
+        <v>6745</v>
       </c>
       <c r="G15" t="n">
-        <v>16</v>
+        <v>34.8</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="I15" t="n">
-        <v>165</v>
+        <v>7275</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>37.5</v>
       </c>
       <c r="K15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>1565</v>
+        <v>770</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1621,22 +1621,22 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>3875</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1648,21 +1648,21 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="AA15" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2020-04-17</t>
+          <t>2020-04-14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>五</t>
+          <t>二</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1671,61 +1671,61 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1095</v>
+        <v>17455</v>
       </c>
       <c r="E16" t="n">
+        <v>55</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6295</v>
+      </c>
+      <c r="G16" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>109</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7370</v>
+      </c>
+      <c r="J16" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>7</v>
+      </c>
+      <c r="L16" t="n">
+        <v>865</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>3</v>
       </c>
-      <c r="F16" t="n">
-        <v>75</v>
-      </c>
-      <c r="G16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>12</v>
-      </c>
-      <c r="I16" t="n">
-        <v>565</v>
-      </c>
-      <c r="J16" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>455</v>
-      </c>
-      <c r="M16" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1737,21 +1737,21 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="AA16" t="n">
-        <v>64</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2020-04-18</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>六</t>
+          <t>三</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1760,34 +1760,34 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>950</v>
+        <v>17370</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>6515</v>
       </c>
       <c r="G17" t="n">
-        <v>10.5</v>
+        <v>37.5</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="I17" t="n">
-        <v>295</v>
+        <v>6660</v>
       </c>
       <c r="J17" t="n">
-        <v>31.1</v>
+        <v>38.3</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L17" t="n">
-        <v>555</v>
+        <v>1040</v>
       </c>
       <c r="M17" t="n">
-        <v>58.4</v>
+        <v>6</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1808,13 +1808,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>3155</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1826,21 +1826,21 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="AA17" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2020-04-20</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>一</t>
+          <t>四</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1849,61 +1849,61 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1245</v>
+        <v>18455</v>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="F18" t="n">
-        <v>580</v>
+        <v>7355</v>
       </c>
       <c r="G18" t="n">
-        <v>46.6</v>
+        <v>39.9</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="I18" t="n">
-        <v>70</v>
+        <v>5155</v>
       </c>
       <c r="J18" t="n">
-        <v>5.6</v>
+        <v>27.9</v>
       </c>
       <c r="K18" t="n">
+        <v>18</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2405</v>
+      </c>
+      <c r="M18" t="n">
+        <v>13</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>6</v>
       </c>
-      <c r="L18" t="n">
-        <v>595</v>
-      </c>
-      <c r="M18" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1210</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>2330</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1915,21 +1915,21 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="AA18" t="n">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>2020-04-17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>二</t>
+          <t>五</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1938,34 +1938,34 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1690</v>
+        <v>16445</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="F19" t="n">
-        <v>320</v>
+        <v>6595</v>
       </c>
       <c r="G19" t="n">
-        <v>18.9</v>
+        <v>40.1</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="I19" t="n">
-        <v>710</v>
+        <v>6620</v>
       </c>
       <c r="J19" t="n">
-        <v>42</v>
+        <v>40.3</v>
       </c>
       <c r="K19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L19" t="n">
-        <v>660</v>
+        <v>1065</v>
       </c>
       <c r="M19" t="n">
-        <v>39.1</v>
+        <v>6.5</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1986,13 +1986,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>2165</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2004,21 +2004,21 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="AA19" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2020-04-18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>六</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2027,34 +2027,34 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1620</v>
+        <v>19965</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F20" t="n">
-        <v>70</v>
+        <v>7715</v>
       </c>
       <c r="G20" t="n">
-        <v>4.3</v>
+        <v>38.6</v>
       </c>
       <c r="H20" t="n">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="I20" t="n">
-        <v>775</v>
+        <v>6690</v>
       </c>
       <c r="J20" t="n">
-        <v>47.8</v>
+        <v>33.5</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L20" t="n">
-        <v>775</v>
+        <v>1885</v>
       </c>
       <c r="M20" t="n">
-        <v>47.8</v>
+        <v>9.4</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2066,22 +2066,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3265</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>16.4</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2093,21 +2093,21 @@
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="AA20" t="n">
-        <v>60</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2020-04-23</t>
+          <t>2020-04-19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>日</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2116,34 +2116,34 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1645</v>
+        <v>29305</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="F21" t="n">
-        <v>680</v>
+        <v>14105</v>
       </c>
       <c r="G21" t="n">
-        <v>41.3</v>
+        <v>48.1</v>
       </c>
       <c r="H21" t="n">
+        <v>73</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7515</v>
+      </c>
+      <c r="J21" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K21" t="n">
         <v>6</v>
-      </c>
-      <c r="I21" t="n">
-        <v>210</v>
-      </c>
-      <c r="J21" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>7</v>
       </c>
       <c r="L21" t="n">
         <v>755</v>
       </c>
       <c r="M21" t="n">
-        <v>45.9</v>
+        <v>2.6</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2155,22 +2155,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>5245</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>17.9</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2182,21 +2182,21 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="AA21" t="n">
-        <v>97</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2020-04-24</t>
+          <t>2020-04-20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>五</t>
+          <t>一</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2205,34 +2205,34 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1185</v>
+        <v>17270</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="F22" t="n">
-        <v>325</v>
+        <v>8615</v>
       </c>
       <c r="G22" t="n">
-        <v>27.4</v>
+        <v>49.9</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="I22" t="n">
-        <v>95</v>
+        <v>3810</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>22.1</v>
       </c>
       <c r="K22" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L22" t="n">
-        <v>765</v>
+        <v>950</v>
       </c>
       <c r="M22" t="n">
-        <v>64.59999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>3515</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2271,21 +2271,21 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="AA22" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2020-04-25</t>
+          <t>2020-04-21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>六</t>
+          <t>二</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2294,34 +2294,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>920</v>
+        <v>17760</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="F23" t="n">
-        <v>250</v>
+        <v>8620</v>
       </c>
       <c r="G23" t="n">
-        <v>27.2</v>
+        <v>48.5</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="I23" t="n">
-        <v>625</v>
+        <v>5895</v>
       </c>
       <c r="J23" t="n">
-        <v>67.90000000000001</v>
+        <v>33.2</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L23" t="n">
-        <v>45</v>
+        <v>1315</v>
       </c>
       <c r="M23" t="n">
-        <v>4.9</v>
+        <v>7.4</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2342,13 +2342,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1930</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2360,21 +2360,21 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="AA23" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2020-04-26</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>三</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2383,61 +2383,61 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1020</v>
+        <v>17765</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="F24" t="n">
-        <v>40</v>
+        <v>6210</v>
       </c>
       <c r="G24" t="n">
-        <v>3.9</v>
+        <v>35</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="I24" t="n">
-        <v>170</v>
+        <v>6035</v>
       </c>
       <c r="J24" t="n">
-        <v>16.7</v>
+        <v>34</v>
       </c>
       <c r="K24" t="n">
+        <v>17</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1375</v>
+      </c>
+      <c r="M24" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>7</v>
       </c>
-      <c r="L24" t="n">
-        <v>810</v>
-      </c>
-      <c r="M24" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1095</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>3050</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2449,21 +2449,21 @@
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="AA24" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2020-04-27</t>
+          <t>2020-04-23</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>一</t>
+          <t>四</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2472,34 +2472,34 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1325</v>
+        <v>18400</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F25" t="n">
-        <v>420</v>
+        <v>6750</v>
       </c>
       <c r="G25" t="n">
-        <v>31.7</v>
+        <v>36.7</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="I25" t="n">
-        <v>35</v>
+        <v>5530</v>
       </c>
       <c r="J25" t="n">
-        <v>2.6</v>
+        <v>30.1</v>
       </c>
       <c r="K25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L25" t="n">
-        <v>870</v>
+        <v>975</v>
       </c>
       <c r="M25" t="n">
-        <v>65.7</v>
+        <v>5.3</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2511,22 +2511,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>2180</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>2965</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>16.1</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2538,21 +2538,21 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="AA25" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2020-04-28</t>
+          <t>2020-04-24</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>二</t>
+          <t>五</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2561,34 +2561,34 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>770</v>
+        <v>20930</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="F26" t="n">
-        <v>85</v>
+        <v>9770</v>
       </c>
       <c r="G26" t="n">
-        <v>11</v>
+        <v>46.7</v>
       </c>
       <c r="H26" t="n">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I26" t="n">
-        <v>375</v>
+        <v>5520</v>
       </c>
       <c r="J26" t="n">
-        <v>48.7</v>
+        <v>26.4</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L26" t="n">
-        <v>310</v>
+        <v>1360</v>
       </c>
       <c r="M26" t="n">
-        <v>40.3</v>
+        <v>6.5</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2600,22 +2600,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3380</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>16.1</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2627,21 +2627,21 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="AA26" t="n">
-        <v>41</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2020-04-29</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>六</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2650,34 +2650,34 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>910</v>
+        <v>23710</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="F27" t="n">
-        <v>75</v>
+        <v>10615</v>
       </c>
       <c r="G27" t="n">
-        <v>8.199999999999999</v>
+        <v>44.8</v>
       </c>
       <c r="H27" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I27" t="n">
-        <v>485</v>
+        <v>6165</v>
       </c>
       <c r="J27" t="n">
-        <v>53.3</v>
+        <v>26</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L27" t="n">
-        <v>350</v>
+        <v>950</v>
       </c>
       <c r="M27" t="n">
-        <v>38.5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2689,22 +2689,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1625</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>4355</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2716,21 +2716,21 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="AA27" t="n">
-        <v>54</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020-04-30</t>
+          <t>2020-04-26</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>日</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2739,34 +2739,34 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1535</v>
+        <v>28865</v>
       </c>
       <c r="E28" t="n">
+        <v>57</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10320</v>
+      </c>
+      <c r="G28" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="H28" t="n">
+        <v>69</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7345</v>
+      </c>
+      <c r="J28" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="K28" t="n">
         <v>15</v>
       </c>
-      <c r="F28" t="n">
-        <v>440</v>
-      </c>
-      <c r="G28" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-      <c r="I28" t="n">
-        <v>625</v>
-      </c>
-      <c r="J28" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4</v>
-      </c>
       <c r="L28" t="n">
-        <v>470</v>
+        <v>2345</v>
       </c>
       <c r="M28" t="n">
-        <v>30.6</v>
+        <v>8.1</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>2085</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>6770</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2805,91 +2805,447 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="AA28" t="n">
-        <v>70</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>一</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>21690</v>
+      </c>
+      <c r="E29" t="n">
+        <v>103</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9230</v>
+      </c>
+      <c r="G29" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>54</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4625</v>
+      </c>
+      <c r="J29" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>12</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1160</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>44</v>
+      </c>
+      <c r="U29" t="n">
+        <v>6675</v>
+      </c>
+      <c r="V29" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>213</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>二</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>18855</v>
+      </c>
+      <c r="E30" t="n">
+        <v>74</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8540</v>
+      </c>
+      <c r="G30" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>100</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6225</v>
+      </c>
+      <c r="J30" t="n">
+        <v>33</v>
+      </c>
+      <c r="K30" t="n">
+        <v>12</v>
+      </c>
+      <c r="L30" t="n">
+        <v>920</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>115</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="T30" t="n">
+        <v>21</v>
+      </c>
+      <c r="U30" t="n">
+        <v>3055</v>
+      </c>
+      <c r="V30" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>208</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>三</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>18110</v>
+      </c>
+      <c r="E31" t="n">
+        <v>75</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8765</v>
+      </c>
+      <c r="G31" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>88</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5510</v>
+      </c>
+      <c r="J31" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K31" t="n">
+        <v>7</v>
+      </c>
+      <c r="L31" t="n">
+        <v>780</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>335</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T31" t="n">
+        <v>16</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2720</v>
+      </c>
+      <c r="V31" t="n">
+        <v>15</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>188</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>四</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>19975</v>
+      </c>
+      <c r="E32" t="n">
+        <v>111</v>
+      </c>
+      <c r="F32" t="n">
+        <v>11645</v>
+      </c>
+      <c r="G32" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>46</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4310</v>
+      </c>
+      <c r="J32" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="K32" t="n">
+        <v>6</v>
+      </c>
+      <c r="L32" t="n">
+        <v>675</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>470</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T32" t="n">
+        <v>19</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2875</v>
+      </c>
+      <c r="V32" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>184</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>小計</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>31870</v>
-      </c>
-      <c r="E29" t="n">
-        <v>131</v>
-      </c>
-      <c r="F29" t="n">
-        <v>5995</v>
-      </c>
-      <c r="G29" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="H29" t="n">
-        <v>149</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8215</v>
-      </c>
-      <c r="J29" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="K29" t="n">
-        <v>151</v>
-      </c>
-      <c r="L29" t="n">
-        <v>17660</v>
-      </c>
-      <c r="M29" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>431</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>74</v>
+      <c r="D33" t="n">
+        <v>610845</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2153</v>
+      </c>
+      <c r="F33" t="n">
+        <v>246635</v>
+      </c>
+      <c r="G33" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2189</v>
+      </c>
+      <c r="I33" t="n">
+        <v>176325</v>
+      </c>
+      <c r="J33" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K33" t="n">
+        <v>332</v>
+      </c>
+      <c r="L33" t="n">
+        <v>38880</v>
+      </c>
+      <c r="M33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>139</v>
+      </c>
+      <c r="R33" t="n">
+        <v>29960</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T33" t="n">
+        <v>754</v>
+      </c>
+      <c r="U33" t="n">
+        <v>119045</v>
+      </c>
+      <c r="V33" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>5567</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
